--- a/Webseiten-abschreiben.xlsx
+++ b/Webseiten-abschreiben.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>Benutzt/ Wo</t>
+  </si>
+  <si>
+    <t>Bildkoordinaten zu Weltkoordinaten</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/30502687/image-coordinate-to-world-coordinate-opencv</t>
+  </si>
+  <si>
+    <t>Kann man eigentlich vergessen</t>
   </si>
 </sst>
 </file>
@@ -389,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,9 +465,21 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Webseiten-abschreiben.xlsx
+++ b/Webseiten-abschreiben.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Kann man eigentlich vergessen</t>
+  </si>
+  <si>
+    <t>Blumen clustern</t>
+  </si>
+  <si>
+    <t>https://web.stanford.edu/class/cs345a/slides/12-clustering.pdf</t>
+  </si>
+  <si>
+    <t>Ja, Blumenerkennung</t>
   </si>
 </sst>
 </file>
@@ -398,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,46 +449,57 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Webseiten-abschreiben.xlsx
+++ b/Webseiten-abschreiben.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>Ja, Blumenerkennung</t>
+  </si>
+  <si>
+    <t>Ultraschallsensor</t>
+  </si>
+  <si>
+    <t>https://tutorials-raspberrypi.de/entfernung-messen-mit-ultraschallsensor-hc-sr04/</t>
+  </si>
+  <si>
+    <t>Software PWM</t>
+  </si>
+  <si>
+    <t>http://abyz.me.uk/rpi/pigpio/</t>
   </si>
 </sst>
 </file>
@@ -407,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,6 +508,22 @@
         <v>16</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>

--- a/Webseiten-abschreiben.xlsx
+++ b/Webseiten-abschreiben.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>http://abyz.me.uk/rpi/pigpio/</t>
+  </si>
+  <si>
+    <t>SPI Kommunikation Arduino Raspberry</t>
+  </si>
+  <si>
+    <t>http://robotics.hobbizine.com/raspiduino.html</t>
   </si>
 </sst>
 </file>
@@ -419,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,6 +530,14 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>

--- a/Webseiten-abschreiben.xlsx
+++ b/Webseiten-abschreiben.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -63,15 +63,6 @@
     <t>Benutzt/ Wo</t>
   </si>
   <si>
-    <t>Bildkoordinaten zu Weltkoordinaten</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/30502687/image-coordinate-to-world-coordinate-opencv</t>
-  </si>
-  <si>
-    <t>Kann man eigentlich vergessen</t>
-  </si>
-  <si>
     <t>Blumen clustern</t>
   </si>
   <si>
@@ -97,6 +88,9 @@
   </si>
   <si>
     <t>http://robotics.hobbizine.com/raspiduino.html</t>
+  </si>
+  <si>
+    <t>https://github.com/Pi4J/pi4j/blob/master/pi4j-example/src/main/java/SpiExample.java</t>
   </si>
 </sst>
 </file>
@@ -427,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,13 +461,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -505,43 +499,40 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Webseiten-abschreiben.xlsx
+++ b/Webseiten-abschreiben.xlsx
@@ -517,7 +517,7 @@
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -533,6 +533,7 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Webseiten-abschreiben.xlsx
+++ b/Webseiten-abschreiben.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>https://github.com/Pi4J/pi4j/blob/master/pi4j-example/src/main/java/SpiExample.java</t>
+  </si>
+  <si>
+    <t>Arduino Flight Controller</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PL0K4VDicBzsgMF4rrGlGWlBwrtJMf0Dmp</t>
   </si>
 </sst>
 </file>
@@ -419,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,6 +535,14 @@
         <v>23</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>

--- a/Webseiten-abschreiben.xlsx
+++ b/Webseiten-abschreiben.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/playlist?list=PL0K4VDicBzsgMF4rrGlGWlBwrtJMf0Dmp</t>
+  </si>
+  <si>
+    <t>https://github.com/sparkfun/MPU-9250_Breakout/blob/master/Libraries/Arduino/src/MPU9250.cpp</t>
+  </si>
+  <si>
+    <t>Alternative MPU</t>
   </si>
 </sst>
 </file>
@@ -425,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,11 +549,20 @@
         <v>25</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B11" r:id="rId2"/>
     <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="B13" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Webseiten-abschreiben.xlsx
+++ b/Webseiten-abschreiben.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Alternative MPU</t>
+  </si>
+  <si>
+    <t>Joystick Tutorial</t>
+  </si>
+  <si>
+    <t>http://www.gametutorial.net/article/JInput-Joystick-Test</t>
   </si>
 </sst>
 </file>
@@ -431,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,6 +563,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>

--- a/Webseiten-abschreiben.xlsx
+++ b/Webseiten-abschreiben.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>http://www.gametutorial.net/article/JInput-Joystick-Test</t>
+  </si>
+  <si>
+    <t>Joystick verwendung</t>
+  </si>
+  <si>
+    <t>https://www.codeproject.com/Articles/26949/Xbox-Controller-Input-in-C-with-XInput</t>
+  </si>
+  <si>
+    <t>Ja, XboxControllerInput.dll</t>
   </si>
 </sst>
 </file>
@@ -437,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,6 +580,17 @@
         <v>29</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>

--- a/Webseiten-abschreiben.xlsx
+++ b/Webseiten-abschreiben.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Ja, XboxControllerInput.dll</t>
+  </si>
+  <si>
+    <t>WLAN!</t>
+  </si>
+  <si>
+    <t>https://social.technet.microsoft.com/Forums/windows/en-US/56ff83ff-1f15-4fc1-aa37-6651340d46fa/windows-81-connecting-to-ad-hoc-networks?forum=w8itpronetworking</t>
   </si>
 </sst>
 </file>
@@ -446,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,6 +597,14 @@
         <v>32</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>

--- a/Webseiten-abschreiben.xlsx
+++ b/Webseiten-abschreiben.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Beschreibung</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>https://social.technet.microsoft.com/Forums/windows/en-US/56ff83ff-1f15-4fc1-aa37-6651340d46fa/windows-81-connecting-to-ad-hoc-networks?forum=w8itpronetworking</t>
+  </si>
+  <si>
+    <t>https://www.techniker-forum.de/thema/vorwiderstand-fuer-kondensatoren-puffer-rc-glied.41418/</t>
+  </si>
+  <si>
+    <t>Kondensator</t>
   </si>
 </sst>
 </file>
@@ -452,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,8 +607,16 @@
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -611,6 +625,7 @@
     <hyperlink ref="B11" r:id="rId2"/>
     <hyperlink ref="B10" r:id="rId3"/>
     <hyperlink ref="B13" r:id="rId4"/>
+    <hyperlink ref="B16" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Webseiten-abschreiben.xlsx
+++ b/Webseiten-abschreiben.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -461,17 +461,17 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" customWidth="1"/>
-    <col min="2" max="2" width="112.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
+    <col min="2" max="2" width="112.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -498,7 +498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -509,7 +509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -520,7 +520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -528,7 +528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -536,7 +536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -544,7 +544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -552,7 +552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -560,7 +560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -568,7 +568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -576,7 +576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -584,7 +584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -592,7 +592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -603,7 +603,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -611,11 +611,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -626,6 +626,7 @@
     <hyperlink ref="B10" r:id="rId3"/>
     <hyperlink ref="B13" r:id="rId4"/>
     <hyperlink ref="B16" r:id="rId5"/>
+    <hyperlink ref="B17" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
